--- a/SourceCode/2024/May 2024/Bhavya/Task 22/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 22/input.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <x:si>
     <x:t>SmallLetters</x:t>
   </x:si>
@@ -48,6 +48,12 @@
   </x:si>
   <x:si>
     <x:t>surabhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SURABHI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sucess</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -435,7 +441,63 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
